--- a/Посещаемость в школе.xlsx
+++ b/Посещаемость в школе.xlsx
@@ -1549,7 +1549,7 @@
         <v>287</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
